--- a/Base/Teams/Football Team/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Football Team/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C3">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="C3">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>3</v>

--- a/Base/Teams/Football Team/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Football Team/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="C2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Football Team/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Football Team/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C3">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>1</v>

--- a/Base/Teams/Football Team/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Football Team/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="C3">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D3">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Football Team/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Football Team/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C2">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C2">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>3</v>
